--- a/Code/Results/Cases/Case_5_124/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_124/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.48967468088329</v>
+        <v>14.61399645465972</v>
       </c>
       <c r="C2">
-        <v>15.22288658281311</v>
+        <v>7.967680387001448</v>
       </c>
       <c r="D2">
-        <v>9.673414417659947</v>
+        <v>7.919997271376202</v>
       </c>
       <c r="E2">
-        <v>11.54913474817774</v>
+        <v>10.35691967998533</v>
       </c>
       <c r="F2">
-        <v>63.1379240641503</v>
+        <v>45.35077606733246</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -454,7 +454,7 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>18.45903733982069</v>
+        <v>15.7655862068672</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.86726751891083</v>
+        <v>14.20314885177105</v>
       </c>
       <c r="C3">
-        <v>14.08913576263378</v>
+        <v>7.550689470233192</v>
       </c>
       <c r="D3">
-        <v>9.181617575283154</v>
+        <v>7.757603831157134</v>
       </c>
       <c r="E3">
-        <v>10.87066311557254</v>
+        <v>10.19212663783078</v>
       </c>
       <c r="F3">
-        <v>59.10355600160537</v>
+        <v>43.91823071386122</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -501,7 +501,7 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>17.11287981705659</v>
+        <v>15.56563962829284</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.82988255115198</v>
+        <v>13.95270309439353</v>
       </c>
       <c r="C4">
-        <v>13.36632013153891</v>
+        <v>7.287496905188032</v>
       </c>
       <c r="D4">
-        <v>8.875392590172753</v>
+        <v>7.656282840507525</v>
       </c>
       <c r="E4">
-        <v>10.44724256333906</v>
+        <v>10.09202247293478</v>
       </c>
       <c r="F4">
-        <v>56.55884869006518</v>
+        <v>43.02161795793949</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -548,7 +548,7 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>16.25236419242416</v>
+        <v>15.44798760829663</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.39636202508577</v>
+        <v>13.85130646400733</v>
       </c>
       <c r="C5">
-        <v>13.06471417811979</v>
+        <v>7.178642268386019</v>
       </c>
       <c r="D5">
-        <v>8.749501169169317</v>
+        <v>7.614621340415656</v>
       </c>
       <c r="E5">
-        <v>10.27298701083161</v>
+        <v>10.05154339788976</v>
       </c>
       <c r="F5">
-        <v>55.50465868981797</v>
+        <v>42.65244284402661</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -595,7 +595,7 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>15.89281034718828</v>
+        <v>15.40138909386646</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.32371415469506</v>
+        <v>13.83451573891846</v>
       </c>
       <c r="C6">
-        <v>13.01419750584149</v>
+        <v>7.160476716383392</v>
       </c>
       <c r="D6">
-        <v>8.728530103235933</v>
+        <v>7.607681964732717</v>
       </c>
       <c r="E6">
-        <v>10.24395016191452</v>
+        <v>10.04484209197392</v>
       </c>
       <c r="F6">
-        <v>55.32857152583303</v>
+        <v>42.59092699773035</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -642,7 +642,7 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>15.83256062712745</v>
+        <v>15.39373438137266</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.82408009169394</v>
+        <v>13.95133266733586</v>
       </c>
       <c r="C7">
-        <v>13.36228154839899</v>
+        <v>7.286035053115839</v>
       </c>
       <c r="D7">
-        <v>8.873699256051614</v>
+        <v>7.655722442757189</v>
       </c>
       <c r="E7">
-        <v>10.44489935611062</v>
+        <v>10.09147522978959</v>
       </c>
       <c r="F7">
-        <v>56.54470123756269</v>
+        <v>43.01665384794162</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>16.24755153320391</v>
+        <v>15.44735364028421</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.93855992436621</v>
+        <v>14.47208025210431</v>
       </c>
       <c r="C8">
-        <v>14.8372897601844</v>
+        <v>7.825497506956331</v>
       </c>
       <c r="D8">
-        <v>9.504698129052864</v>
+        <v>7.864357575617988</v>
       </c>
       <c r="E8">
-        <v>11.31660622049988</v>
+        <v>10.29990080036263</v>
       </c>
       <c r="F8">
-        <v>61.76069326004954</v>
+        <v>44.86064629784912</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -736,7 +736,7 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>18.00171189808309</v>
+        <v>15.69561931726203</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.77959008961232</v>
+        <v>15.49905265961376</v>
       </c>
       <c r="C9">
-        <v>17.53591435687996</v>
+        <v>8.835613099371662</v>
       </c>
       <c r="D9">
-        <v>10.71158823330154</v>
+        <v>8.259337938601663</v>
       </c>
       <c r="E9">
-        <v>12.97436853230115</v>
+        <v>10.71529438401306</v>
       </c>
       <c r="F9">
-        <v>71.47746518602841</v>
+        <v>48.32227871434085</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>21.19013875150362</v>
+        <v>16.2203090866832</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>27.45136087982403</v>
+        <v>16.24626537978608</v>
       </c>
       <c r="C10">
-        <v>19.4302870971698</v>
+        <v>9.649016824642093</v>
       </c>
       <c r="D10">
-        <v>11.58756733939428</v>
+        <v>8.539166244345161</v>
       </c>
       <c r="E10">
-        <v>14.1693938819668</v>
+        <v>11.02202505737257</v>
       </c>
       <c r="F10">
-        <v>78.36266351165995</v>
+        <v>50.74812194904791</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -830,7 +830,7 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>23.40943940149394</v>
+        <v>16.62502324401619</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>28.64443460287003</v>
+        <v>16.58255383145433</v>
       </c>
       <c r="C11">
-        <v>20.28145992762635</v>
+        <v>9.998869313032365</v>
       </c>
       <c r="D11">
-        <v>11.98660390058497</v>
+        <v>8.663879833171627</v>
       </c>
       <c r="E11">
-        <v>14.71156148595302</v>
+        <v>11.16137461780933</v>
       </c>
       <c r="F11">
-        <v>81.46057623429702</v>
+        <v>51.82202434326928</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>24.40085596623588</v>
+        <v>16.81246874501943</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>29.09409793678153</v>
+        <v>16.70922376080227</v>
       </c>
       <c r="C12">
-        <v>20.60316858852048</v>
+        <v>10.12846254508553</v>
       </c>
       <c r="D12">
-        <v>12.13812659116147</v>
+        <v>8.710708272926771</v>
       </c>
       <c r="E12">
-        <v>14.9170859121039</v>
+        <v>11.21407371468418</v>
       </c>
       <c r="F12">
-        <v>82.63117153136467</v>
+        <v>52.22412176610536</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -924,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>24.77457908591582</v>
+        <v>16.88385865377028</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>28.9973295921846</v>
+        <v>16.68197546769214</v>
       </c>
       <c r="C13">
-        <v>20.53389328664073</v>
+        <v>10.10068057884713</v>
       </c>
       <c r="D13">
-        <v>12.10546850229205</v>
+        <v>8.70064103264896</v>
       </c>
       <c r="E13">
-        <v>14.87280464224692</v>
+        <v>11.20272778640344</v>
       </c>
       <c r="F13">
-        <v>82.37912928628111</v>
+        <v>52.13773048566713</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>24.69415027136332</v>
+        <v>16.8684665334768</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>28.68146423125589</v>
+        <v>16.59298941054018</v>
       </c>
       <c r="C14">
-        <v>20.30793338376474</v>
+        <v>10.00958883940216</v>
       </c>
       <c r="D14">
-        <v>11.99905913248242</v>
+        <v>8.667740557827921</v>
       </c>
       <c r="E14">
-        <v>14.72846282704625</v>
+        <v>11.1657118402309</v>
       </c>
       <c r="F14">
-        <v>81.55691609247559</v>
+        <v>51.85519828490875</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1018,7 +1018,7 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>24.43163062919425</v>
+        <v>16.81833426045331</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>28.48774680726414</v>
+        <v>16.5383906011996</v>
       </c>
       <c r="C15">
-        <v>20.16947733066728</v>
+        <v>9.953416751492764</v>
       </c>
       <c r="D15">
-        <v>11.93394622840067</v>
+        <v>8.647535488905353</v>
       </c>
       <c r="E15">
-        <v>14.64009252731104</v>
+        <v>11.14302819007464</v>
       </c>
       <c r="F15">
-        <v>81.05304167826188</v>
+        <v>51.68153600634554</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>24.27063814277077</v>
+        <v>16.78767785682347</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>27.37302861519088</v>
+        <v>16.22420174549669</v>
       </c>
       <c r="C16">
-        <v>19.37452113274353</v>
+        <v>9.62574828375333</v>
       </c>
       <c r="D16">
-        <v>11.56152705635028</v>
+        <v>8.530961650494389</v>
       </c>
       <c r="E16">
-        <v>14.13396621090568</v>
+        <v>11.01291081942547</v>
       </c>
       <c r="F16">
-        <v>78.15970993511947</v>
+        <v>50.67731682762441</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1112,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>23.34435561616369</v>
+        <v>16.61283428138545</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.68416494078243</v>
+        <v>16.03041517521332</v>
       </c>
       <c r="C17">
-        <v>18.88471575529975</v>
+        <v>9.419576630585892</v>
       </c>
       <c r="D17">
-        <v>11.33341115911674</v>
+        <v>8.458766635722705</v>
       </c>
       <c r="E17">
-        <v>13.8233654392678</v>
+        <v>10.93300984206427</v>
       </c>
       <c r="F17">
-        <v>76.37749490957674</v>
+        <v>50.05344450202853</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1159,7 +1159,7 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>22.77204571429261</v>
+        <v>16.50637739833062</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>26.28577022448329</v>
+        <v>15.91862167939059</v>
       </c>
       <c r="C18">
-        <v>18.60193133542971</v>
+        <v>9.299092943341904</v>
       </c>
       <c r="D18">
-        <v>11.20223137538697</v>
+        <v>8.417000454920482</v>
       </c>
       <c r="E18">
-        <v>13.6445467060026</v>
+        <v>10.88703811801311</v>
       </c>
       <c r="F18">
-        <v>75.34901494807042</v>
+        <v>49.69183718955453</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>22.44109507234606</v>
+        <v>16.44546478204066</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>26.15047720233143</v>
+        <v>15.88071812535215</v>
       </c>
       <c r="C19">
-        <v>18.50597858432925</v>
+        <v>9.257972703874715</v>
       </c>
       <c r="D19">
-        <v>11.15781195292666</v>
+        <v>8.402818502962484</v>
       </c>
       <c r="E19">
-        <v>13.58396171613118</v>
+        <v>10.87147167780874</v>
       </c>
       <c r="F19">
-        <v>75.00014305689331</v>
+        <v>49.5689368743487</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1253,7 +1253,7 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>22.32871187826014</v>
+        <v>16.4248977258309</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>26.75771403293719</v>
+        <v>16.05107966891176</v>
       </c>
       <c r="C20">
-        <v>18.93696026673483</v>
+        <v>9.441720432927857</v>
       </c>
       <c r="D20">
-        <v>11.35768961141457</v>
+        <v>8.466477112935875</v>
       </c>
       <c r="E20">
-        <v>13.85644427071597</v>
+        <v>10.94151728562519</v>
       </c>
       <c r="F20">
-        <v>76.56755099164806</v>
+        <v>50.12014603780012</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>22.83314665996516</v>
+        <v>16.51767746645629</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>28.77428942621437</v>
+        <v>16.61914625995398</v>
       </c>
       <c r="C21">
-        <v>20.3743115791658</v>
+        <v>10.03642297790319</v>
       </c>
       <c r="D21">
-        <v>12.03029966122788</v>
+        <v>8.677415227164563</v>
       </c>
       <c r="E21">
-        <v>14.77084955240284</v>
+        <v>11.1765865453445</v>
       </c>
       <c r="F21">
-        <v>81.79846584882658</v>
+        <v>51.93831103557747</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>24.50877702669738</v>
+        <v>16.83304881029597</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>30.08053319152513</v>
+        <v>16.98641298227479</v>
       </c>
       <c r="C22">
-        <v>21.31072649516645</v>
+        <v>10.40826654424311</v>
       </c>
       <c r="D22">
-        <v>12.47254965721415</v>
+        <v>8.812945143224651</v>
       </c>
       <c r="E22">
-        <v>15.37003467969033</v>
+        <v>11.32979350999246</v>
       </c>
       <c r="F22">
-        <v>85.26402347139883</v>
+        <v>53.09985357738945</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1394,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>25.59454506397273</v>
+        <v>17.04150974892201</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>29.38401064502206</v>
+        <v>16.7908090758491</v>
       </c>
       <c r="C23">
-        <v>20.8108567265515</v>
+        <v>10.21134222308644</v>
       </c>
       <c r="D23">
-        <v>12.23613002365592</v>
+        <v>8.74083185520845</v>
       </c>
       <c r="E23">
-        <v>15.04991702736767</v>
+        <v>11.24807677111076</v>
       </c>
       <c r="F23">
-        <v>83.39628071124828</v>
+        <v>52.48245505621409</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1441,7 +1441,7 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>25.0155491133237</v>
+        <v>16.93005894861462</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>26.72446991080191</v>
+        <v>16.0417384324587</v>
       </c>
       <c r="C24">
-        <v>18.91334429171466</v>
+        <v>9.431715303496652</v>
       </c>
       <c r="D24">
-        <v>11.34671344974515</v>
+        <v>8.462992014939614</v>
       </c>
       <c r="E24">
-        <v>13.84149014076236</v>
+        <v>10.93767117795156</v>
       </c>
       <c r="F24">
-        <v>76.48163883456118</v>
+        <v>50.08999939115615</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1488,7 +1488,7 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>22.80552897473747</v>
+        <v>16.51256779422906</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.76984881374335</v>
+        <v>15.22177272251131</v>
       </c>
       <c r="C25">
-        <v>16.82384956417748</v>
+        <v>8.558233268203608</v>
       </c>
       <c r="D25">
-        <v>10.3877275998996</v>
+        <v>8.154185318953399</v>
       </c>
       <c r="E25">
-        <v>12.53081261889729</v>
+        <v>10.60246756448858</v>
       </c>
       <c r="F25">
-        <v>68.89891031086118</v>
+        <v>47.40489543236775</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1535,7 +1535,7 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>20.35171417812852</v>
+        <v>16.0747060106832</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_124/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_124/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.61399645465972</v>
+        <v>21.48967468088341</v>
       </c>
       <c r="C2">
-        <v>7.967680387001448</v>
+        <v>15.22288658281313</v>
       </c>
       <c r="D2">
-        <v>7.919997271376202</v>
+        <v>9.673414417659956</v>
       </c>
       <c r="E2">
-        <v>10.35691967998533</v>
+        <v>11.54913474817774</v>
       </c>
       <c r="F2">
-        <v>45.35077606733246</v>
+        <v>63.13792406415022</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -454,7 +454,7 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>15.7655862068672</v>
+        <v>18.45903733982077</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>14.20314885177105</v>
+        <v>19.86726751891093</v>
       </c>
       <c r="C3">
-        <v>7.550689470233192</v>
+        <v>14.08913576263381</v>
       </c>
       <c r="D3">
-        <v>7.757603831157134</v>
+        <v>9.181617575283136</v>
       </c>
       <c r="E3">
-        <v>10.19212663783078</v>
+        <v>10.87066311557257</v>
       </c>
       <c r="F3">
-        <v>43.91823071386122</v>
+        <v>59.10355600160572</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -501,7 +501,7 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>15.56563962829284</v>
+        <v>17.11287981705665</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13.95270309439353</v>
+        <v>18.82988255115179</v>
       </c>
       <c r="C4">
-        <v>7.287496905188032</v>
+        <v>13.36632013153907</v>
       </c>
       <c r="D4">
-        <v>7.656282840507525</v>
+        <v>8.875392590172828</v>
       </c>
       <c r="E4">
-        <v>10.09202247293478</v>
+        <v>10.44724256333898</v>
       </c>
       <c r="F4">
-        <v>43.02161795793949</v>
+        <v>56.55884869006499</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -548,7 +548,7 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>15.44798760829663</v>
+        <v>16.25236419242404</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>13.85130646400733</v>
+        <v>18.39636202508596</v>
       </c>
       <c r="C5">
-        <v>7.178642268386019</v>
+        <v>13.06471417811964</v>
       </c>
       <c r="D5">
-        <v>7.614621340415656</v>
+        <v>8.749501169169374</v>
       </c>
       <c r="E5">
-        <v>10.05154339788976</v>
+        <v>10.27298701083168</v>
       </c>
       <c r="F5">
-        <v>42.65244284402661</v>
+        <v>55.50465868981836</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -595,7 +595,7 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>15.40138909386646</v>
+        <v>15.89281034718832</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>13.83451573891846</v>
+        <v>18.32371415469485</v>
       </c>
       <c r="C6">
-        <v>7.160476716383392</v>
+        <v>13.01419750584154</v>
       </c>
       <c r="D6">
-        <v>7.607681964732717</v>
+        <v>8.728530103236039</v>
       </c>
       <c r="E6">
-        <v>10.04484209197392</v>
+        <v>10.2439501619145</v>
       </c>
       <c r="F6">
-        <v>42.59092699773035</v>
+        <v>55.32857152583313</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -642,7 +642,7 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>15.39373438137266</v>
+        <v>15.83256062712734</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13.95133266733586</v>
+        <v>18.82408009169401</v>
       </c>
       <c r="C7">
-        <v>7.286035053115839</v>
+        <v>13.36228154839899</v>
       </c>
       <c r="D7">
-        <v>7.655722442757189</v>
+        <v>8.873699256051685</v>
       </c>
       <c r="E7">
-        <v>10.09147522978959</v>
+        <v>10.4448993561106</v>
       </c>
       <c r="F7">
-        <v>43.01665384794162</v>
+        <v>56.54470123756276</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>15.44735364028421</v>
+        <v>16.24755153320397</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14.47208025210431</v>
+        <v>20.93855992436616</v>
       </c>
       <c r="C8">
-        <v>7.825497506956331</v>
+        <v>14.83728976018444</v>
       </c>
       <c r="D8">
-        <v>7.864357575617988</v>
+        <v>9.504698129052889</v>
       </c>
       <c r="E8">
-        <v>10.29990080036263</v>
+        <v>11.31660622049985</v>
       </c>
       <c r="F8">
-        <v>44.86064629784912</v>
+        <v>61.76069326004956</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -736,7 +736,7 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>15.69561931726203</v>
+        <v>18.00171189808313</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.49905265961376</v>
+        <v>24.77959008961232</v>
       </c>
       <c r="C9">
-        <v>8.835613099371662</v>
+        <v>17.53591435687992</v>
       </c>
       <c r="D9">
-        <v>8.259337938601663</v>
+        <v>10.71158823330153</v>
       </c>
       <c r="E9">
-        <v>10.71529438401306</v>
+        <v>12.97436853230114</v>
       </c>
       <c r="F9">
-        <v>48.32227871434085</v>
+        <v>71.47746518602816</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>16.2203090866832</v>
+        <v>21.19013875150362</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.24626537978608</v>
+        <v>27.45136087982402</v>
       </c>
       <c r="C10">
-        <v>9.649016824642093</v>
+        <v>19.43028709716958</v>
       </c>
       <c r="D10">
-        <v>8.539166244345161</v>
+        <v>11.58756733939428</v>
       </c>
       <c r="E10">
-        <v>11.02202505737257</v>
+        <v>14.16939388196677</v>
       </c>
       <c r="F10">
-        <v>50.74812194904791</v>
+        <v>78.36266351165985</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -830,7 +830,7 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>16.62502324401619</v>
+        <v>23.40943940149383</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.58255383145433</v>
+        <v>28.64443460287001</v>
       </c>
       <c r="C11">
-        <v>9.998869313032365</v>
+        <v>20.2814599276263</v>
       </c>
       <c r="D11">
-        <v>8.663879833171627</v>
+        <v>11.98660390058495</v>
       </c>
       <c r="E11">
-        <v>11.16137461780933</v>
+        <v>14.71156148595305</v>
       </c>
       <c r="F11">
-        <v>51.82202434326928</v>
+        <v>81.46057623429699</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>16.81246874501943</v>
+        <v>24.40085596623589</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.70922376080227</v>
+        <v>29.09409793678152</v>
       </c>
       <c r="C12">
-        <v>10.12846254508553</v>
+        <v>20.6031685885207</v>
       </c>
       <c r="D12">
-        <v>8.710708272926771</v>
+        <v>12.13812659116142</v>
       </c>
       <c r="E12">
-        <v>11.21407371468418</v>
+        <v>14.91708591210391</v>
       </c>
       <c r="F12">
-        <v>52.22412176610536</v>
+        <v>82.63117153136446</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -924,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>16.88385865377028</v>
+        <v>24.77457908591585</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.68197546769214</v>
+        <v>28.99732959218463</v>
       </c>
       <c r="C13">
-        <v>10.10068057884713</v>
+        <v>20.53389328664079</v>
       </c>
       <c r="D13">
-        <v>8.70064103264896</v>
+        <v>12.10546850229205</v>
       </c>
       <c r="E13">
-        <v>11.20272778640344</v>
+        <v>14.87280464224695</v>
       </c>
       <c r="F13">
-        <v>52.13773048566713</v>
+        <v>82.37912928628117</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>16.8684665334768</v>
+        <v>24.69415027136334</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.59298941054018</v>
+        <v>28.68146423125569</v>
       </c>
       <c r="C14">
-        <v>10.00958883940216</v>
+        <v>20.30793338376492</v>
       </c>
       <c r="D14">
-        <v>8.667740557827921</v>
+        <v>11.99905913248234</v>
       </c>
       <c r="E14">
-        <v>11.1657118402309</v>
+        <v>14.72846282704621</v>
       </c>
       <c r="F14">
-        <v>51.85519828490875</v>
+        <v>81.55691609247525</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1018,7 +1018,7 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>16.81833426045331</v>
+        <v>24.43163062919415</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.5383906011996</v>
+        <v>28.48774680726405</v>
       </c>
       <c r="C15">
-        <v>9.953416751492764</v>
+        <v>20.16947733066731</v>
       </c>
       <c r="D15">
-        <v>8.647535488905353</v>
+        <v>11.93394622840064</v>
       </c>
       <c r="E15">
-        <v>11.14302819007464</v>
+        <v>14.64009252731098</v>
       </c>
       <c r="F15">
-        <v>51.68153600634554</v>
+        <v>81.05304167826158</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>16.78767785682347</v>
+        <v>24.27063814277072</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.22420174549669</v>
+        <v>27.373028615191</v>
       </c>
       <c r="C16">
-        <v>9.62574828375333</v>
+        <v>19.37452113274378</v>
       </c>
       <c r="D16">
-        <v>8.530961650494389</v>
+        <v>11.56152705635039</v>
       </c>
       <c r="E16">
-        <v>11.01291081942547</v>
+        <v>14.1339662109057</v>
       </c>
       <c r="F16">
-        <v>50.67731682762441</v>
+        <v>78.15970993511998</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1112,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>16.61283428138545</v>
+        <v>23.34435561616374</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.03041517521332</v>
+        <v>26.68416494078248</v>
       </c>
       <c r="C17">
-        <v>9.419576630585892</v>
+        <v>18.88471575530001</v>
       </c>
       <c r="D17">
-        <v>8.458766635722705</v>
+        <v>11.33341115911679</v>
       </c>
       <c r="E17">
-        <v>10.93300984206427</v>
+        <v>13.82336543926782</v>
       </c>
       <c r="F17">
-        <v>50.05344450202853</v>
+        <v>76.37749490957709</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1159,7 +1159,7 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>16.50637739833062</v>
+        <v>22.77204571429268</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.91862167939059</v>
+        <v>26.28577022448324</v>
       </c>
       <c r="C18">
-        <v>9.299092943341904</v>
+        <v>18.60193133542979</v>
       </c>
       <c r="D18">
-        <v>8.417000454920482</v>
+        <v>11.20223137538699</v>
       </c>
       <c r="E18">
-        <v>10.88703811801311</v>
+        <v>13.64454670600264</v>
       </c>
       <c r="F18">
-        <v>49.69183718955453</v>
+        <v>75.34901494807045</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>16.44546478204066</v>
+        <v>22.44109507234609</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.88071812535215</v>
+        <v>26.15047720233132</v>
       </c>
       <c r="C19">
-        <v>9.257972703874715</v>
+        <v>18.5059785843293</v>
       </c>
       <c r="D19">
-        <v>8.402818502962484</v>
+        <v>11.15781195292666</v>
       </c>
       <c r="E19">
-        <v>10.87147167780874</v>
+        <v>13.58396171613121</v>
       </c>
       <c r="F19">
-        <v>49.5689368743487</v>
+        <v>75.00014305689325</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1253,7 +1253,7 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>16.4248977258309</v>
+        <v>22.32871187826018</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.05107966891176</v>
+        <v>26.75771403293727</v>
       </c>
       <c r="C20">
-        <v>9.441720432927857</v>
+        <v>18.93696026673482</v>
       </c>
       <c r="D20">
-        <v>8.466477112935875</v>
+        <v>11.35768961141457</v>
       </c>
       <c r="E20">
-        <v>10.94151728562519</v>
+        <v>13.85644427071602</v>
       </c>
       <c r="F20">
-        <v>50.12014603780012</v>
+        <v>76.56755099164815</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>16.51767746645629</v>
+        <v>22.83314665996523</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.61914625995398</v>
+        <v>28.77428942621446</v>
       </c>
       <c r="C21">
-        <v>10.03642297790319</v>
+        <v>20.3743115791658</v>
       </c>
       <c r="D21">
-        <v>8.677415227164563</v>
+        <v>12.03029966122779</v>
       </c>
       <c r="E21">
-        <v>11.1765865453445</v>
+        <v>14.77084955240278</v>
       </c>
       <c r="F21">
-        <v>51.93831103557747</v>
+        <v>81.79846584882604</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>16.83304881029597</v>
+        <v>24.50877702669738</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.98641298227479</v>
+        <v>30.08053319152526</v>
       </c>
       <c r="C22">
-        <v>10.40826654424311</v>
+        <v>21.31072649516641</v>
       </c>
       <c r="D22">
-        <v>8.812945143224651</v>
+        <v>12.47254965721418</v>
       </c>
       <c r="E22">
-        <v>11.32979350999246</v>
+        <v>15.37003467969031</v>
       </c>
       <c r="F22">
-        <v>53.09985357738945</v>
+        <v>85.26402347139911</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1394,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>17.04150974892201</v>
+        <v>25.59454506397275</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.7908090758491</v>
+        <v>29.38401064502192</v>
       </c>
       <c r="C23">
-        <v>10.21134222308644</v>
+        <v>20.81085672655159</v>
       </c>
       <c r="D23">
-        <v>8.74083185520845</v>
+        <v>12.23613002365581</v>
       </c>
       <c r="E23">
-        <v>11.24807677111076</v>
+        <v>15.04991702736765</v>
       </c>
       <c r="F23">
-        <v>52.48245505621409</v>
+        <v>83.39628071124788</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1441,7 +1441,7 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>16.93005894861462</v>
+        <v>25.01554911332363</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.0417384324587</v>
+        <v>26.72446991080186</v>
       </c>
       <c r="C24">
-        <v>9.431715303496652</v>
+        <v>18.91334429171471</v>
       </c>
       <c r="D24">
-        <v>8.462992014939614</v>
+        <v>11.3467134497452</v>
       </c>
       <c r="E24">
-        <v>10.93767117795156</v>
+        <v>13.84149014076234</v>
       </c>
       <c r="F24">
-        <v>50.08999939115615</v>
+        <v>76.48163883456142</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1488,7 +1488,7 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>16.51256779422906</v>
+        <v>22.80552897473743</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.22177272251131</v>
+        <v>23.76984881374339</v>
       </c>
       <c r="C25">
-        <v>8.558233268203608</v>
+        <v>16.82384956417757</v>
       </c>
       <c r="D25">
-        <v>8.154185318953399</v>
+        <v>10.38772759989971</v>
       </c>
       <c r="E25">
-        <v>10.60246756448858</v>
+        <v>12.53081261889724</v>
       </c>
       <c r="F25">
-        <v>47.40489543236775</v>
+        <v>68.89891031086142</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1535,7 +1535,7 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>16.0747060106832</v>
+        <v>20.35171417812848</v>
       </c>
       <c r="N25">
         <v>0</v>
